--- a/bh3/550102855844441379_2021-07-22_10-00-02.xlsx
+++ b/bh3/550102855844441379_2021-07-22_10-00-02.xlsx
@@ -624,7 +624,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -11554,7 +11554,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -15749,7 +15749,7 @@
         </is>
       </c>
       <c r="I209" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J209" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -21430,7 +21430,7 @@
         </is>
       </c>
       <c r="I286" t="n">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="J286" t="inlineStr">
         <is>
@@ -22275,11 +22275,11 @@
         </is>
       </c>
       <c r="I298" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -24934,7 +24934,7 @@
         </is>
       </c>
       <c r="I334" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J334" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         </is>
       </c>
       <c r="I353" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J353" t="inlineStr">
         <is>
@@ -27105,7 +27105,7 @@
         </is>
       </c>
       <c r="I363" t="n">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="J363" t="inlineStr">
         <is>
@@ -28705,11 +28705,11 @@
         </is>
       </c>
       <c r="I385" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -28848,7 +28848,7 @@
         </is>
       </c>
       <c r="I387" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="J387" t="inlineStr">
         <is>
@@ -30453,7 +30453,7 @@
         </is>
       </c>
       <c r="I409" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J409" t="inlineStr">
         <is>
@@ -32001,11 +32001,11 @@
         </is>
       </c>
       <c r="I430" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -33565,7 +33565,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -36704,7 +36704,7 @@
         </is>
       </c>
       <c r="I494" t="n">
-        <v>1234</v>
+        <v>1239</v>
       </c>
       <c r="J494" t="inlineStr">
         <is>
@@ -37143,7 +37143,7 @@
         </is>
       </c>
       <c r="I500" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J500" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         </is>
       </c>
       <c r="I501" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J501" t="inlineStr">
         <is>

--- a/bh3/550102855844441379_2021-07-22_10-00-02.xlsx
+++ b/bh3/550102855844441379_2021-07-22_10-00-02.xlsx
@@ -767,7 +767,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -16266,7 +16266,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -21434,7 +21434,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -22279,7 +22279,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">

--- a/bh3/550102855844441379_2021-07-22_10-00-02.xlsx
+++ b/bh3/550102855844441379_2021-07-22_10-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4980639491</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-24 16:05:30</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44401.67048611111</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -614,10 +628,8 @@
           <t>4972317033</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-23 13:28:38</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44400.56155092592</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -690,10 +702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-23 07:04:23</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44400.29471064815</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -757,10 +767,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-22 23:52:19</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44399.99466435185</v>
       </c>
       <c r="I5" t="n">
         <v>2</v>
@@ -847,10 +855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-22 17:13:09</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44399.71746527778</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -926,10 +932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-22 16:46:09</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44399.69871527778</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1005,10 +1009,8 @@
           <t>4964044897</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-22 16:19:56</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44399.68050925926</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1072,10 +1074,8 @@
           <t>4964049069</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-22 15:50:33</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44399.66010416667</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1139,10 +1139,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-22 15:13:30</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44399.634375</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1214,10 +1212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-22 14:29:54</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44399.60409722223</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1293,10 +1289,8 @@
           <t>4965411040</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-22 14:26:24</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44399.60166666667</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1360,10 +1354,8 @@
           <t>4965360611</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-22 14:15:25</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44399.59403935185</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1431,10 +1423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-22 14:00:50</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44399.58391203704</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1507,10 +1497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-22 13:43:49</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44399.57209490741</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1582,10 +1570,8 @@
           <t>4965090618</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-22 13:28:40</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44399.56157407408</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1661,10 +1647,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-22 13:17:17</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44399.55366898148</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1736,10 +1720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-22 13:13:33</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44399.55107638889</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1815,10 +1797,8 @@
           <t>4964962987</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-22 13:08:42</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44399.54770833333</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1891,10 +1871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-22 13:05:43</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44399.54563657408</v>
       </c>
       <c r="I20" t="n">
         <v>3</v>
@@ -1962,10 +1940,8 @@
           <t>4964828212</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-22 13:04:51</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44399.54503472222</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2029,10 +2005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-22 13:02:08</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44399.54314814815</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -2104,10 +2078,8 @@
           <t>4964828212</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:59:08</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44399.54106481482</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2179,10 +2151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:52:19</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44399.53633101852</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2250,10 +2220,8 @@
           <t>4964843559</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:51:35</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44399.53582175926</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2321,10 +2289,8 @@
           <t>4964828212</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:49:04</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44399.53407407407</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2396,10 +2362,8 @@
           <t>4964801246</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:44:23</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44399.53082175926</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2467,10 +2431,8 @@
           <t>4964800007</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:43:50</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44399.53043981481</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2538,10 +2500,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:43:34</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44399.53025462963</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2613,10 +2573,8 @@
           <t>4964779712</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:42:44</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44399.52967592593</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2688,10 +2646,8 @@
           <t>4964786404</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:42:22</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44399.5294212963</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2759,10 +2715,8 @@
           <t>4964085490</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:41:11</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44399.52859953704</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -2838,10 +2792,8 @@
           <t>4964768646</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:41:00</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44399.52847222222</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2913,10 +2865,8 @@
           <t>4964772432</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:40:43</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44399.52827546297</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2988,10 +2938,8 @@
           <t>4964775376</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:40:42</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44399.52826388889</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3059,10 +3007,8 @@
           <t>4964763247</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:39:41</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44399.52755787037</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -3130,10 +3076,8 @@
           <t>4964760567</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:38:24</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44399.52666666666</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3201,10 +3145,8 @@
           <t>4964751880</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:38:18</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44399.52659722222</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3272,10 +3214,8 @@
           <t>4964741312</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:36:07</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44399.52508101852</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3351,10 +3291,8 @@
           <t>4964733823</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:35:05</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44399.52436342592</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3422,10 +3360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:33:09</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44399.52302083333</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3493,10 +3429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:25:06</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44399.51743055556</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3568,10 +3502,8 @@
           <t>4964639883</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:23:00</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44399.51597222222</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -3647,10 +3579,8 @@
           <t>4964643882</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:22:46</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44399.51581018518</v>
       </c>
       <c r="I44" t="n">
         <v>2</v>
@@ -3722,10 +3652,8 @@
           <t>4964127424</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:22:27</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44399.51559027778</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3793,10 +3721,8 @@
           <t>4963862959</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:20:51</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44399.51447916667</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3864,10 +3790,8 @@
           <t>4964625269</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:19:11</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44399.51332175926</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -3935,10 +3859,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:18:41</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44399.51297453704</v>
       </c>
       <c r="I48" t="n">
         <v>6</v>
@@ -4014,10 +3936,8 @@
           <t>4964435978</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:17:37</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44399.5122337963</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4085,10 +4005,8 @@
           <t>4964599478</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:16:45</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44399.51163194444</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4164,10 +4082,8 @@
           <t>4964598911</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:16:29</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44399.51144675926</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4243,10 +4159,8 @@
           <t>4964579316</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:14:21</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44399.50996527778</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4314,10 +4228,8 @@
           <t>4964578529</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:13:58</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44399.50969907407</v>
       </c>
       <c r="I53" t="n">
         <v>2</v>
@@ -4390,10 +4302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:10:45</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44399.50746527778</v>
       </c>
       <c r="I54" t="n">
         <v>2</v>
@@ -4460,10 +4370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:10:35</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44399.50734953704</v>
       </c>
       <c r="I55" t="n">
         <v>2</v>
@@ -4527,10 +4435,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:10:24</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44399.50722222222</v>
       </c>
       <c r="I56" t="n">
         <v>2</v>
@@ -4594,10 +4500,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:10:18</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44399.50715277778</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -4668,10 +4572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:10:10</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44399.50706018518</v>
       </c>
       <c r="I58" t="n">
         <v>3</v>
@@ -4735,10 +4637,8 @@
           <t>4963900688</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:10:08</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44399.50703703704</v>
       </c>
       <c r="I59" t="n">
         <v>2</v>
@@ -4817,10 +4717,8 @@
           <t>4964464984</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:09:56</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44399.50689814815</v>
       </c>
       <c r="I60" t="n">
         <v>2</v>
@@ -4896,10 +4794,8 @@
           <t>4964464984</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:08:32</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44399.50592592593</v>
       </c>
       <c r="I61" t="n">
         <v>2</v>
@@ -4975,10 +4871,8 @@
           <t>4964085490</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:07:31</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44399.50521990741</v>
       </c>
       <c r="I62" t="n">
         <v>2</v>
@@ -5038,10 +4932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:07:24</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44399.50513888889</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -5105,10 +4997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:06:23</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44399.50443287037</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5172,10 +5062,8 @@
           <t>4964464984</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:05:12</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44399.50361111111</v>
       </c>
       <c r="I65" t="n">
         <v>2</v>
@@ -5239,10 +5127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:04:48</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44399.50333333333</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5306,10 +5192,8 @@
           <t>4964498211</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:01:41</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44399.50116898148</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5385,10 +5269,8 @@
           <t>4964501823</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:01:33</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44399.50107638889</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5456,10 +5338,8 @@
           <t>4964085490</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:00:03</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44399.50003472222</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -5535,10 +5415,8 @@
           <t>4964483292</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:59:37</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44399.4997337963</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5606,10 +5484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:58:39</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44399.4990625</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5685,10 +5561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:58:35</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44399.49901620371</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5752,10 +5626,8 @@
           <t>4963900688</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:58:26</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44399.49891203704</v>
       </c>
       <c r="I73" t="n">
         <v>3</v>
@@ -5819,10 +5691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:58:22</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44399.49886574074</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5898,10 +5768,8 @@
           <t>4964464984</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:57:42</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44399.49840277778</v>
       </c>
       <c r="I75" t="n">
         <v>4</v>
@@ -5977,10 +5845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:56:54</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44399.49784722222</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6048,10 +5914,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:55:06</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44399.49659722222</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -6115,10 +5979,8 @@
           <t>4964440347</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:53:52</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44399.49574074074</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -6183,10 +6045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:53:08</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44399.49523148148</v>
       </c>
       <c r="I79" t="n">
         <v>4</v>
@@ -6246,10 +6106,8 @@
           <t>4964127373</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:53:05</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44399.49519675926</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6321,10 +6179,8 @@
           <t>4964442546</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:52:15</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44399.49461805556</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6396,10 +6252,8 @@
           <t>4964127373</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:52:14</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44399.49460648148</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6476,10 +6330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:51:59</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44399.49443287037</v>
       </c>
       <c r="I83" t="n">
         <v>7</v>
@@ -6539,10 +6391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:51:22</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44399.49400462963</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6619,10 +6469,8 @@
           <t>4964440347</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:51:12</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44399.49388888889</v>
       </c>
       <c r="I85" t="n">
         <v>5</v>
@@ -6699,10 +6547,8 @@
           <t>4964435978</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:50:58</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44399.49372685186</v>
       </c>
       <c r="I86" t="n">
         <v>4</v>
@@ -6773,10 +6619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:50:56</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44399.4937037037</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6844,10 +6688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:50:06</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44399.493125</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6925,10 +6767,8 @@
           <t>4964417408</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:49:00</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44399.49236111111</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6996,10 +6836,8 @@
           <t>4964421779</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:48:59</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44399.49234953704</v>
       </c>
       <c r="I90" t="n">
         <v>2</v>
@@ -7071,10 +6909,8 @@
           <t>4964414569</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:48:31</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44399.49202546296</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7150,10 +6986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:48:22</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44399.4919212963</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7229,10 +7063,8 @@
           <t>4964409657</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:47:57</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44399.49163194445</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7300,10 +7132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:47:50</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44399.49155092592</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7371,10 +7201,8 @@
           <t>4964392808</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:47:43</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44399.49146990741</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7442,10 +7270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:47:40</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44399.49143518518</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -7517,10 +7343,8 @@
           <t>4964392808</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:47:02</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44399.49099537037</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -7596,10 +7420,8 @@
           <t>4964411035</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:46:49</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44399.49084490741</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7667,10 +7489,8 @@
           <t>4964407302</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:46:47</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44399.49082175926</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7746,10 +7566,8 @@
           <t>4964392808</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:46:36</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44399.49069444444</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7817,10 +7635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:46:12</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44399.49041666667</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -7897,10 +7713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:46:06</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44399.49034722222</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7968,10 +7782,8 @@
           <t>4964392808</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:44:37</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44399.48931712963</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -8047,10 +7859,8 @@
           <t>4964396291</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:44:32</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44399.48925925926</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8126,10 +7936,8 @@
           <t>4964391393</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:43:56</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44399.48884259259</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -8193,10 +8001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:41:33</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44399.4871875</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -8260,10 +8066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:41:26</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44399.48710648148</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8331,10 +8135,8 @@
           <t>4964127373</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:41:13</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44399.48695601852</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8406,10 +8208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:40:30</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44399.48645833333</v>
       </c>
       <c r="I109" t="n">
         <v>3</v>
@@ -8477,10 +8277,8 @@
           <t>4963900688</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:39:30</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44399.48576388889</v>
       </c>
       <c r="I110" t="n">
         <v>2</v>
@@ -8548,10 +8346,8 @@
           <t>4964055712</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:39:18</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44399.485625</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8619,10 +8415,8 @@
           <t>4964360636</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:38:39</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44399.48517361111</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8694,10 +8488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:38:35</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44399.48512731482</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -8773,10 +8565,8 @@
           <t>4964349991</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:38:20</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44399.4849537037</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8844,10 +8634,8 @@
           <t>4964353381</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:38:14</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44399.48488425926</v>
       </c>
       <c r="I115" t="n">
         <v>4</v>
@@ -8915,10 +8703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:37:56</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44399.48467592592</v>
       </c>
       <c r="I116" t="n">
         <v>10</v>
@@ -8986,10 +8772,8 @@
           <t>4964348805</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:37:43</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44399.48452546296</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9049,10 +8833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:37:17</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44399.48422453704</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9116,10 +8898,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:36:47</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44399.48387731481</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -9191,10 +8971,8 @@
           <t>4964343871</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:36:35</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44399.48373842592</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -9266,10 +9044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:36:23</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44399.48359953704</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9337,10 +9113,8 @@
           <t>4964339210</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:36:12</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44399.48347222222</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -9400,10 +9174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:35:25</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44399.48292824074</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9475,10 +9247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:35:22</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44399.48289351852</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9538,10 +9308,8 @@
           <t>4964331796</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:34:11</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44399.48207175926</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9617,10 +9385,8 @@
           <t>4964328921</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:33:55</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44399.48188657407</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9696,10 +9462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:33:30</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44399.48159722222</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -9767,10 +9531,8 @@
           <t>4964319480</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:33:03</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44399.48128472222</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -9842,10 +9604,8 @@
           <t>4963900688</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:32:18</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44399.48076388889</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -9913,10 +9673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:31:47</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44399.4804050926</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9988,10 +9746,8 @@
           <t>4964316650</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:31:37</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44399.48028935185</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10067,10 +9823,8 @@
           <t>4964309025</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:31:23</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44399.48012731481</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10146,10 +9900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:30:44</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44399.47967592593</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10218,10 +9970,8 @@
           <t>4964312150</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:30:20</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44399.47939814815</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10289,10 +10039,8 @@
           <t>4964311120</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:29:48</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44399.47902777778</v>
       </c>
       <c r="I135" t="n">
         <v>4</v>
@@ -10364,10 +10112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:29:44</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44399.47898148148</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10443,10 +10189,8 @@
           <t>4964302858</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:29:42</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44399.47895833333</v>
       </c>
       <c r="I137" t="n">
         <v>4</v>
@@ -10514,10 +10258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:27:58</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44399.47775462963</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10585,10 +10327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:27:03</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44399.47711805555</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -10664,10 +10404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:25:57</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44399.47635416667</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10743,10 +10481,8 @@
           <t>4964273943</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:25:11</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44399.47582175926</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10810,10 +10546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:24:52</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44399.47560185185</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -10881,10 +10615,8 @@
           <t>4964275784</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:24:22</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44399.47525462963</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
@@ -10956,10 +10688,8 @@
           <t>4963862959</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:24:21</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44399.47524305555</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11031,10 +10761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:23:23</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44399.47457175926</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11106,10 +10834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:23:17</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44399.47450231481</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11173,10 +10899,8 @@
           <t>4964259860</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:23:08</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44399.47439814815</v>
       </c>
       <c r="I147" t="n">
         <v>3</v>
@@ -11248,10 +10972,8 @@
           <t>4964257769</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:22:02</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44399.47363425926</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11319,10 +11041,8 @@
           <t>4964260546</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:21:32</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44399.47328703704</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11394,10 +11114,8 @@
           <t>4964260033</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:21:16</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44399.47310185185</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11473,10 +11191,8 @@
           <t>4964256001</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:21:07</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44399.47299768519</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11544,10 +11260,8 @@
           <t>4964255292</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:20:46</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44399.47275462963</v>
       </c>
       <c r="I152" t="n">
         <v>5</v>
@@ -11615,10 +11329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:20:41</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44399.47269675926</v>
       </c>
       <c r="I153" t="n">
         <v>9</v>
@@ -11682,10 +11394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:20:20</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44399.4724537037</v>
       </c>
       <c r="I154" t="n">
         <v>3</v>
@@ -11761,10 +11471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:19:53</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44399.4721412037</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -11840,10 +11548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:19:50</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44399.47210648148</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11919,10 +11625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:18:58</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44399.47150462963</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11998,10 +11702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:18:48</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44399.47138888889</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -12069,10 +11771,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:18:38</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44399.47127314815</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12144,10 +11844,8 @@
           <t>4964240741</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:18:22</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44399.47108796296</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12211,10 +11909,8 @@
           <t>4964240482</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:18:15</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44399.47100694444</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12282,10 +11978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:17:36</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44399.47055555556</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12353,10 +12047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:16:19</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44399.46966435185</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12424,10 +12116,8 @@
           <t>4964220685</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:14:37</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44399.4684837963</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12503,10 +12193,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:13:31</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44399.46771990741</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12582,10 +12270,8 @@
           <t>4964204203</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:12:34</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44399.46706018518</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12649,10 +12335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:12:17</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44399.46686342593</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12724,10 +12408,8 @@
           <t>4964198835</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:12:15</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44399.46684027778</v>
       </c>
       <c r="I168" t="n">
         <v>5</v>
@@ -12795,10 +12477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:11:59</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44399.46665509259</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12874,10 +12554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:11:50</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44399.46655092593</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12949,10 +12627,8 @@
           <t>4964202434</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:11:37</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44399.46640046296</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -13016,10 +12692,8 @@
           <t>4964194325</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:11:27</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44399.46628472222</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13083,10 +12757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:10:48</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44399.46583333334</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13162,10 +12834,8 @@
           <t>4964195955</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:10:46</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44399.46581018518</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13229,10 +12899,8 @@
           <t>4964195883</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:10:43</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44399.46577546297</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13308,10 +12976,8 @@
           <t>4964184993</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:10:18</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44399.46548611111</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13387,10 +13053,8 @@
           <t>4964189998</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:10:16</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44399.46546296297</v>
       </c>
       <c r="I177" t="n">
         <v>1</v>
@@ -13458,10 +13122,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:09:48</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44399.46513888889</v>
       </c>
       <c r="I178" t="n">
         <v>5</v>
@@ -13537,10 +13199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:09:33</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44399.46496527778</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13604,10 +13264,8 @@
           <t>4964044897</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:08:34</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44399.46428240741</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13675,10 +13333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:08:03</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44399.46392361111</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13746,10 +13402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:07:49</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44399.46376157407</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13825,10 +13479,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:07:32</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44399.46356481482</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -13904,10 +13556,8 @@
           <t>4964176053</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:07:18</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44399.46340277778</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -13971,10 +13621,8 @@
           <t>4964168943</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:06:57</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44399.46315972223</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14050,10 +13698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:06:02</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44399.46252314815</v>
       </c>
       <c r="I186" t="n">
         <v>1</v>
@@ -14117,10 +13763,8 @@
           <t>4964084520</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:06:01</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44399.46251157407</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14196,10 +13840,8 @@
           <t>4964170674</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:05:18</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44399.46201388889</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14275,10 +13917,8 @@
           <t>4964084567</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:05:04</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44399.46185185185</v>
       </c>
       <c r="I189" t="n">
         <v>2</v>
@@ -14342,10 +13982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:04:38</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44399.46155092592</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14421,10 +14059,8 @@
           <t>4964160874</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:04:34</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44399.46150462963</v>
       </c>
       <c r="I191" t="n">
         <v>3</v>
@@ -14500,10 +14136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:03:41</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44399.4608912037</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14567,10 +14201,8 @@
           <t>4964127424</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:03:37</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44399.46084490741</v>
       </c>
       <c r="I193" t="n">
         <v>6</v>
@@ -14646,10 +14278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:03:11</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44399.46054398148</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14717,10 +14347,8 @@
           <t>4964155794</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:02:42</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44399.46020833333</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14784,10 +14412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:02:41</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44399.46019675926</v>
       </c>
       <c r="I196" t="n">
         <v>3</v>
@@ -14851,10 +14477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:02:27</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44399.46003472222</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14922,10 +14546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:01:42</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44399.45951388889</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14993,10 +14615,8 @@
           <t>4964139454</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:01:37</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44399.45945601852</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15068,10 +14688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:01:33</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44399.45940972222</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15143,10 +14761,8 @@
           <t>4964139292</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:01:31</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44399.45938657408</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15218,10 +14834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:01:17</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44399.45922453704</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15293,10 +14907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:00:51</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44399.45892361111</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15372,10 +14984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:00:40</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44399.4587962963</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15447,10 +15057,8 @@
           <t>4963862959</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:59:28</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44399.45796296297</v>
       </c>
       <c r="I205" t="n">
         <v>2</v>
@@ -15522,10 +15130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:58:57</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44399.45760416667</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15593,10 +15199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:58:53</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44399.45755787037</v>
       </c>
       <c r="I207" t="n">
         <v>8</v>
@@ -15664,10 +15268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:58:32</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44399.45731481481</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15743,10 +15345,8 @@
           <t>4964127424</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:58:13</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44399.4570949074</v>
       </c>
       <c r="I209" t="n">
         <v>9</v>
@@ -15810,10 +15410,8 @@
           <t>4964127373</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:58:11</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44399.45707175926</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15881,10 +15479,8 @@
           <t>4964126409</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:57:39</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44399.45670138889</v>
       </c>
       <c r="I211" t="n">
         <v>2</v>
@@ -15960,10 +15556,8 @@
           <t>4964117068</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:57:24</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44399.45652777778</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16035,10 +15629,8 @@
           <t>4964125764</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:57:17</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44399.45644675926</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16110,10 +15702,8 @@
           <t>4964116657</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:57:10</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44399.45636574074</v>
       </c>
       <c r="I214" t="n">
         <v>2</v>
@@ -16185,10 +15775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:57:05</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44399.45630787037</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16256,10 +15844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:56:51</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44399.45614583333</v>
       </c>
       <c r="I216" t="n">
         <v>24</v>
@@ -16319,10 +15905,8 @@
           <t>4964084520</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:55:45</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44399.45538194444</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16398,10 +15982,8 @@
           <t>4964103060</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:55:02</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44399.45488425926</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16465,10 +16047,8 @@
           <t>4964084520</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:54:21</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44399.45440972222</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16545,10 +16125,8 @@
           <t>4964099792</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:53:58</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44399.45414351852</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16624,10 +16202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:53:01</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44399.45348379629</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16691,10 +16267,8 @@
           <t>4964093382</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:52:39</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44399.45322916667</v>
       </c>
       <c r="I222" t="n">
         <v>1</v>
@@ -16758,10 +16332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:52:06</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44399.45284722222</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16837,10 +16409,8 @@
           <t>4964096283</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:52:02</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44399.45280092592</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16908,10 +16478,8 @@
           <t>4964044897</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:51:59</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44399.45276620371</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16976,10 +16544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:51:45</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44399.45260416667</v>
       </c>
       <c r="I226" t="n">
         <v>2</v>
@@ -17055,10 +16621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:51:26</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44399.45238425926</v>
       </c>
       <c r="I227" t="n">
         <v>5</v>
@@ -17122,10 +16686,8 @@
           <t>4963907639</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:51:18</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44399.45229166667</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17197,10 +16759,8 @@
           <t>4964084567</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:51:05</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44399.45214120371</v>
       </c>
       <c r="I229" t="n">
         <v>2</v>
@@ -17264,10 +16824,8 @@
           <t>4964086271</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:51:03</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44399.45211805555</v>
       </c>
       <c r="I230" t="n">
         <v>1</v>
@@ -17343,10 +16901,8 @@
           <t>4964084520</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:51:03</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44399.45211805555</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17422,10 +16978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:50:51</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44399.45197916667</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17493,10 +17047,8 @@
           <t>4964085490</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:50:36</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44399.45180555555</v>
       </c>
       <c r="I233" t="n">
         <v>21</v>
@@ -17556,10 +17108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:49:57</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44399.45135416667</v>
       </c>
       <c r="I234" t="n">
         <v>1</v>
@@ -17631,10 +17181,8 @@
           <t>4964072316</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:48:43</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44399.45049768518</v>
       </c>
       <c r="I235" t="n">
         <v>1</v>
@@ -17710,10 +17258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:47:51</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44399.44989583334</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17798,10 +17344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:47:34</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44399.44969907407</v>
       </c>
       <c r="I237" t="n">
         <v>6</v>
@@ -17869,10 +17413,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:47:17</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44399.44950231481</v>
       </c>
       <c r="I238" t="n">
         <v>3</v>
@@ -17940,10 +17482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:47:03</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44399.44934027778</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -18019,10 +17559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:46:57</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44399.44927083333</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18086,10 +17624,8 @@
           <t>4964062317</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:46:36</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44399.44902777778</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18153,10 +17689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:46:31</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44399.4489699074</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18233,10 +17767,8 @@
           <t>4964065870</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:46:11</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44399.44873842593</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18312,10 +17844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:46:00</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44399.44861111111</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18391,10 +17921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:45:30</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44399.44826388889</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18470,10 +17998,8 @@
           <t>4964056457</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:45:13</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44399.44806712963</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18542,10 +18068,8 @@
           <t>4964049069</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:44:50</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44399.44780092593</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18621,10 +18145,8 @@
           <t>4964053364</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:44:48</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44399.44777777778</v>
       </c>
       <c r="I248" t="n">
         <v>2</v>
@@ -18700,10 +18222,8 @@
           <t>4964055712</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:44:46</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44399.44775462963</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18767,10 +18287,8 @@
           <t>4964044897</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:44:18</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44399.44743055556</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18834,10 +18352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:44:15</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44399.44739583333</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18909,10 +18425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:44:06</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44399.44729166666</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18988,10 +18502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:44:00</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44399.44722222222</v>
       </c>
       <c r="I253" t="n">
         <v>3</v>
@@ -19063,10 +18575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:43:32</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44399.44689814815</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19130,10 +18640,8 @@
           <t>4964050639</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:43:19</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44399.44674768519</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19197,10 +18705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:43:06</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44399.44659722222</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19276,10 +18782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:42:14</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44399.44599537037</v>
       </c>
       <c r="I257" t="n">
         <v>5</v>
@@ -19351,10 +18855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:41:57</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44399.44579861111</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19414,10 +18916,8 @@
           <t>4964033490</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:41:48</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44399.44569444445</v>
       </c>
       <c r="I259" t="n">
         <v>1</v>
@@ -19489,10 +18989,8 @@
           <t>4964040087</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:41:26</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44399.44543981482</v>
       </c>
       <c r="I260" t="n">
         <v>2</v>
@@ -19560,10 +19058,8 @@
           <t>4964029530</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:41:08</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44399.44523148148</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19627,10 +19123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:41:05</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44399.44519675926</v>
       </c>
       <c r="I262" t="n">
         <v>1</v>
@@ -19706,10 +19200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:40:55</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44399.44508101852</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19773,10 +19265,8 @@
           <t>4964035247</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:40:14</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44399.44460648148</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19846,10 +19336,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:40:12</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44399.44458333333</v>
       </c>
       <c r="I265" t="n">
         <v>2</v>
@@ -19954,10 +19442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:39:56</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44399.44439814815</v>
       </c>
       <c r="I266" t="n">
         <v>3</v>
@@ -20021,10 +19507,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:39:44</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44399.44425925926</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20100,10 +19584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:39:33</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44399.44413194444</v>
       </c>
       <c r="I268" t="n">
         <v>1</v>
@@ -20179,10 +19661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:39:13</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44399.44390046296</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20246,10 +19726,8 @@
           <t>4964017034</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:38:16</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44399.44324074074</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20313,10 +19791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:37:11</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44399.44248842593</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20380,10 +19856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:36:39</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44399.44211805556</v>
       </c>
       <c r="I272" t="n">
         <v>2</v>
@@ -20451,10 +19925,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:36:20</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44399.44189814815</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20526,10 +19998,8 @@
           <t>4963897873</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:35:35</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44399.44137731481</v>
       </c>
       <c r="I274" t="n">
         <v>2</v>
@@ -20605,10 +20075,8 @@
           <t>4964010069</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:35:31</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44399.44133101852</v>
       </c>
       <c r="I275" t="n">
         <v>2</v>
@@ -20680,10 +20148,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:35:00</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44399.44097222222</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20755,10 +20221,8 @@
           <t>4963998915</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:34:50</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44399.44085648148</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20826,10 +20290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:34:35</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44399.44068287037</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20901,10 +20363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:34:24</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44399.44055555556</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20981,10 +20441,8 @@
           <t>4963988752</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:33:42</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44399.44006944444</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -21048,10 +20506,8 @@
           <t>4963990793</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:32:10</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44399.43900462963</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21123,10 +20579,8 @@
           <t>4963930395</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:31:55</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44399.43883101852</v>
       </c>
       <c r="I282" t="n">
         <v>16</v>
@@ -21194,10 +20648,8 @@
           <t>4963985172</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:31:45</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44399.43871527778</v>
       </c>
       <c r="I283" t="n">
         <v>1</v>
@@ -21265,10 +20717,8 @@
           <t>4963973125</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:30:38</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44399.43793981482</v>
       </c>
       <c r="I284" t="n">
         <v>8</v>
@@ -21341,10 +20791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:30:08</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44399.43759259259</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21424,10 +20872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:29:50</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44399.43738425926</v>
       </c>
       <c r="I286" t="n">
         <v>472</v>
@@ -21491,10 +20937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:29:40</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44399.43726851852</v>
       </c>
       <c r="I287" t="n">
         <v>4</v>
@@ -21562,10 +21006,8 @@
           <t>4963970556</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:29:11</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44399.43693287037</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
@@ -21629,10 +21071,8 @@
           <t>4963959477</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:28:35</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44399.43651620371</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21696,10 +21136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:27:52</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44399.43601851852</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21763,10 +21201,8 @@
           <t>4963966793</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:27:34</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44399.43581018518</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21834,10 +21270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:27:34</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44399.43581018518</v>
       </c>
       <c r="I292" t="n">
         <v>5</v>
@@ -21913,10 +21347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:27:20</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44399.43564814814</v>
       </c>
       <c r="I293" t="n">
         <v>1</v>
@@ -21984,10 +21416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:27:10</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44399.43553240741</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -22055,10 +21485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:26:45</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44399.43524305556</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22131,10 +21559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:26:16</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44399.43490740741</v>
       </c>
       <c r="I296" t="n">
         <v>1</v>
@@ -22198,10 +21624,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:26:15</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44399.43489583334</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22269,10 +21693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:26:06</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44399.43479166667</v>
       </c>
       <c r="I298" t="n">
         <v>138</v>
@@ -22340,10 +21762,8 @@
           <t>4963955031</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:26:04</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44399.43476851852</v>
       </c>
       <c r="I299" t="n">
         <v>2</v>
@@ -22415,10 +21835,8 @@
           <t>4963944710</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:25:53</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44399.4346412037</v>
       </c>
       <c r="I300" t="n">
         <v>3</v>
@@ -22490,10 +21908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:25:49</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44399.4345949074</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22561,10 +21977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:25:47</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44399.43457175926</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22641,10 +22055,8 @@
           <t>4963948247</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:25:09</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44399.43413194444</v>
       </c>
       <c r="I303" t="n">
         <v>2</v>
@@ -22720,10 +22132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:24:31</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44399.43369212963</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22795,10 +22205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:24:25</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44399.43362268519</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22866,10 +22274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:24:20</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44399.43356481481</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22945,10 +22351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:23:56</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44399.43328703703</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -23016,10 +22420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:23:38</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44399.4330787037</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -23091,10 +22493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:23:33</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44399.43302083333</v>
       </c>
       <c r="I309" t="n">
         <v>1</v>
@@ -23170,10 +22570,8 @@
           <t>4963930395</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:23:29</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44399.43297453703</v>
       </c>
       <c r="I310" t="n">
         <v>32</v>
@@ -23249,10 +22647,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:23:19</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44399.4328587963</v>
       </c>
       <c r="I311" t="n">
         <v>8</v>
@@ -23321,10 +22717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:23:10</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44399.43275462963</v>
       </c>
       <c r="I312" t="n">
         <v>1</v>
@@ -23392,10 +22786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:23:03</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44399.43267361111</v>
       </c>
       <c r="I313" t="n">
         <v>1</v>
@@ -23459,10 +22851,8 @@
           <t>4963933813</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:22:39</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44399.43239583333</v>
       </c>
       <c r="I314" t="n">
         <v>2</v>
@@ -23530,10 +22920,8 @@
           <t>4963933685</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:22:35</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44399.43234953703</v>
       </c>
       <c r="I315" t="n">
         <v>1</v>
@@ -23605,10 +22993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:22:27</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44399.43225694444</v>
       </c>
       <c r="I316" t="n">
         <v>2</v>
@@ -23676,10 +23062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:22:00</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44399.43194444444</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23743,10 +23127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:21:55</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44399.43188657407</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23818,10 +23200,8 @@
           <t>4963927709</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:21:53</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44399.43186342593</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23889,10 +23269,8 @@
           <t>4963932351</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:21:49</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44399.43181712963</v>
       </c>
       <c r="I320" t="n">
         <v>1</v>
@@ -23952,10 +23330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:20:52</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44399.43115740741</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -24023,10 +23399,8 @@
           <t>4963930395</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:20:41</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44399.43103009259</v>
       </c>
       <c r="I322" t="n">
         <v>50</v>
@@ -24094,10 +23468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:20:40</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44399.43101851852</v>
       </c>
       <c r="I323" t="n">
         <v>3</v>
@@ -24169,10 +23541,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:20:29</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44399.4308912037</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -24244,10 +23614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:20:26</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44399.43085648148</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24319,10 +23687,8 @@
           <t>4963914340</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:20:04</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44399.43060185185</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24398,10 +23764,8 @@
           <t>4963919281</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:19:55</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44399.43049768519</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24477,10 +23841,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:19:36</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44399.43027777778</v>
       </c>
       <c r="I328" t="n">
         <v>2</v>
@@ -24548,10 +23910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:19:12</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44399.43</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24623,10 +23983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:19:00</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44399.42986111111</v>
       </c>
       <c r="I330" t="n">
         <v>2</v>
@@ -24702,10 +24060,8 @@
           <t>4963917360</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:18:48</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44399.42972222222</v>
       </c>
       <c r="I331" t="n">
         <v>2</v>
@@ -24769,10 +24125,8 @@
           <t>4963917142</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:18:40</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44399.42962962963</v>
       </c>
       <c r="I332" t="n">
         <v>1</v>
@@ -24849,10 +24203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:18:18</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44399.429375</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24928,10 +24280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:18:14</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44399.42932870371</v>
       </c>
       <c r="I334" t="n">
         <v>189</v>
@@ -25008,10 +24358,8 @@
           <t>4963916168</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:18:07</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44399.42924768518</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -25083,10 +24431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:17:56</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44399.42912037037</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25154,10 +24500,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:17:55</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44399.4291087963</v>
       </c>
       <c r="I337" t="n">
         <v>1</v>
@@ -25236,10 +24580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:17:37</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44399.42890046296</v>
       </c>
       <c r="I338" t="n">
         <v>1</v>
@@ -25303,10 +24645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:17:29</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44399.42880787037</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25374,10 +24714,8 @@
           <t>4963910050</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:17:27</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44399.42878472222</v>
       </c>
       <c r="I340" t="n">
         <v>17</v>
@@ -25449,10 +24787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:17:21</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44399.42871527778</v>
       </c>
       <c r="I341" t="n">
         <v>2</v>
@@ -25520,10 +24856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:17:03</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44399.42850694444</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25599,10 +24933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:16:53</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44399.42839120371</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25666,10 +24998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:16:49</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44399.42834490741</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25745,10 +25075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:16:18</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44399.42798611111</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25820,10 +25148,8 @@
           <t>4963907639</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:16:12</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44399.42791666667</v>
       </c>
       <c r="I346" t="n">
         <v>24</v>
@@ -25899,10 +25225,8 @@
           <t>4963897873</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:16:04</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44399.42782407408</v>
       </c>
       <c r="I347" t="n">
         <v>6</v>
@@ -25978,10 +25302,8 @@
           <t>4963906814</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:15:44</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44399.42759259259</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -26045,10 +25367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:15:12</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44399.42722222222</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -26120,10 +25440,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:15:10</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44399.42719907407</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26191,10 +25509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:15:09</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44399.4271875</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26270,10 +25586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:15:04</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44399.42712962963</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26345,10 +25659,8 @@
           <t>4963900688</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:14:55</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44399.42702546297</v>
       </c>
       <c r="I353" t="n">
         <v>39</v>
@@ -26424,10 +25736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:14:54</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44399.42701388889</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26503,10 +25813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:14:42</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44399.426875</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26578,10 +25886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:14:30</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44399.42673611111</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26645,10 +25951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:14:24</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44399.42666666667</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26720,10 +26024,8 @@
           <t>4963889721</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:14:21</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44399.42663194444</v>
       </c>
       <c r="I358" t="n">
         <v>4</v>
@@ -26791,10 +26093,8 @@
           <t>4963884867</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:14:13</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44399.42653935185</v>
       </c>
       <c r="I359" t="n">
         <v>9</v>
@@ -26870,10 +26170,8 @@
           <t>4963884217</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:13:50</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44399.42627314815</v>
       </c>
       <c r="I360" t="n">
         <v>2</v>
@@ -26949,10 +26247,8 @@
           <t>4963883853</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:13:43</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44399.42619212963</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -27024,10 +26320,8 @@
           <t>4963883853</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:13:37</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44399.42612268519</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -27099,10 +26393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:13:12</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44399.42583333333</v>
       </c>
       <c r="I363" t="n">
         <v>873</v>
@@ -27174,10 +26466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:12:51</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44399.42559027778</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -27249,10 +26539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:12:34</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44399.42539351852</v>
       </c>
       <c r="I365" t="n">
         <v>2</v>
@@ -27328,10 +26616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:12:32</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44399.42537037037</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27391,10 +26677,8 @@
           <t>4963881660</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:12:19</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44399.42521990741</v>
       </c>
       <c r="I367" t="n">
         <v>2</v>
@@ -27470,10 +26754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:12:04</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44399.4250462963</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27537,10 +26819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:11:58</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44399.42497685185</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27605,10 +26885,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:11:49</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44399.42487268519</v>
       </c>
       <c r="I370" t="n">
         <v>2</v>
@@ -27676,10 +26954,8 @@
           <t>4963880836</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:11:49</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44399.42487268519</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27751,10 +27027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:11:46</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44399.42483796296</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27831,10 +27105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:11:40</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44399.42476851852</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27898,10 +27170,8 @@
           <t>4963880417</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:11:32</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44399.42467592593</v>
       </c>
       <c r="I374" t="n">
         <v>10</v>
@@ -27977,10 +27247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:11:22</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44399.42456018519</v>
       </c>
       <c r="I375" t="n">
         <v>4</v>
@@ -28048,10 +27316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:11:20</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44399.42453703703</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -28115,10 +27381,8 @@
           <t>4963879057</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:11:19</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44399.42452546296</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28182,10 +27446,8 @@
           <t>4963869787</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:11:11</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44399.42443287037</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28261,10 +27523,8 @@
           <t>4963869723</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:11:09</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44399.42440972223</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28340,10 +27600,8 @@
           <t>4963878751</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:11:09</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44399.42440972223</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28411,10 +27669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:11:01</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44399.42431712963</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28490,10 +27746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:10:53</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44399.42422453704</v>
       </c>
       <c r="I382" t="n">
         <v>1</v>
@@ -28561,10 +27815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:10:46</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44399.42414351852</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28632,10 +27884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:10:44</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44399.42412037037</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28699,10 +27949,8 @@
           <t>4963878014</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:10:44</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44399.42412037037</v>
       </c>
       <c r="I385" t="n">
         <v>4</v>
@@ -28770,10 +28018,8 @@
           <t>4963877595</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:10:31</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44399.42396990741</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28842,10 +28088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:10:27</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44399.42392361111</v>
       </c>
       <c r="I387" t="n">
         <v>329</v>
@@ -28924,10 +28168,8 @@
           <t>4963877424</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:10:26</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44399.42391203704</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28999,10 +28241,8 @@
           <t>4963877276</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:10:21</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44399.42385416666</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -29070,10 +28310,8 @@
           <t>4963868336</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:10:18</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44399.42381944445</v>
       </c>
       <c r="I390" t="n">
         <v>1</v>
@@ -29150,10 +28388,8 @@
           <t>4963871826</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:09:51</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44399.42350694445</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29213,10 +28449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:09:45</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44399.4234375</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29292,10 +28526,8 @@
           <t>4963871235</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:09:31</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44399.42327546296</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29372,10 +28604,8 @@
           <t>4963866732</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:09:21</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44399.42315972222</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29447,10 +28677,8 @@
           <t>4963864592</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:08:51</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44399.4228125</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29526,10 +28754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:08:38</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44399.42266203704</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29597,10 +28823,8 @@
           <t>4963864210</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:08:37</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44399.42265046296</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29664,10 +28888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:08:24</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44399.4225</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29731,10 +28953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:08:24</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44399.4225</v>
       </c>
       <c r="I399" t="n">
         <v>13</v>
@@ -29806,10 +29026,8 @@
           <t>4963862959</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:07:54</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44399.42215277778</v>
       </c>
       <c r="I400" t="n">
         <v>109</v>
@@ -29877,10 +29095,8 @@
           <t>4963848612</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:07:44</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44399.42203703704</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29945,10 +29161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:07:37</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44399.42195601852</v>
       </c>
       <c r="I402" t="n">
         <v>19</v>
@@ -30024,10 +29238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:07:34</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44399.4219212963</v>
       </c>
       <c r="I403" t="n">
         <v>1</v>
@@ -30091,10 +29303,8 @@
           <t>4963857739</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:07:30</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44399.421875</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -30171,10 +29381,8 @@
           <t>4963853719</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:07:30</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44399.421875</v>
       </c>
       <c r="I405" t="n">
         <v>3</v>
@@ -30238,10 +29446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:07:28</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44399.42185185185</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30301,10 +29507,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:07:25</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44399.42181712963</v>
       </c>
       <c r="I407" t="n">
         <v>3</v>
@@ -30372,10 +29576,8 @@
           <t>4963862056</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:07:24</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44399.42180555555</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30447,10 +29649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:07:12</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44399.42166666667</v>
       </c>
       <c r="I409" t="n">
         <v>181</v>
@@ -30526,10 +29726,8 @@
           <t>4963853182</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:07:11</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44399.42165509259</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30605,10 +29803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:06:50</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44399.42141203704</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30680,10 +29876,8 @@
           <t>4963852575</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:06:50</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44399.42141203704</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30743,10 +29937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:06:49</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44399.42140046296</v>
       </c>
       <c r="I413" t="n">
         <v>3</v>
@@ -30822,10 +30014,8 @@
           <t>4963856279</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:06:39</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44399.42128472222</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30901,10 +30091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:06:31</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44399.42119212963</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30981,10 +30169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:06:24</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44399.42111111111</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -31044,10 +30230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:06:23</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44399.42109953704</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -31111,10 +30295,8 @@
           <t>4963855794</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:06:20</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44399.42106481481</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -31178,10 +30360,8 @@
           <t>4963851770</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:06:19</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44399.42105324074</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31257,10 +30437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:06:09</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44399.4209375</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31328,10 +30506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:06:09</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44399.4209375</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31403,10 +30579,8 @@
           <t>4963855142</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:05:57</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44399.42079861111</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31482,10 +30656,8 @@
           <t>4963849438</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:05:53</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44399.42075231481</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31553,10 +30725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:05:50</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44399.42071759259</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31624,10 +30794,8 @@
           <t>4963850915</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:05:47</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44399.42068287037</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31699,10 +30867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:05:34</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44399.42053240741</v>
       </c>
       <c r="I426" t="n">
         <v>12</v>
@@ -31766,10 +30932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:05:27</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44399.42045138889</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31845,10 +31009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:05:23</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44399.42040509259</v>
       </c>
       <c r="I428" t="n">
         <v>2</v>
@@ -31924,10 +31086,8 @@
           <t>4963848612</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:05:23</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44399.42040509259</v>
       </c>
       <c r="I429" t="n">
         <v>6</v>
@@ -31995,10 +31155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:05:05</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44399.42019675926</v>
       </c>
       <c r="I430" t="n">
         <v>188</v>
@@ -32066,10 +31224,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:05:05</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44399.42019675926</v>
       </c>
       <c r="I431" t="n">
         <v>62</v>
@@ -32129,10 +31285,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:05:02</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44399.42016203704</v>
       </c>
       <c r="I432" t="n">
         <v>10</v>
@@ -32204,10 +31358,8 @@
           <t>4963839584</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:04:55</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44399.42008101852</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32279,10 +31431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:04:51</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44399.42003472222</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32346,10 +31496,8 @@
           <t>4963843249</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:04:49</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44399.42001157408</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32429,10 +31577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:04:46</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44399.41997685185</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32508,10 +31654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:04:44</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44399.41995370371</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32579,10 +31723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:04:43</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44399.41994212963</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32654,10 +31796,8 @@
           <t>4963847457</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:04:42</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44399.41993055555</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32733,10 +31873,8 @@
           <t>4963842829</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:04:35</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44399.41984953704</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32800,10 +31938,8 @@
           <t>4963847057</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:04:28</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44399.41976851852</v>
       </c>
       <c r="I441" t="n">
         <v>6</v>
@@ -32867,10 +32003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:04:25</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44399.4197337963</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32942,10 +32076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:04:23</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44399.41971064815</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -33021,10 +32153,8 @@
           <t>4963842426</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:04:22</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44399.41969907407</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -33100,10 +32230,8 @@
           <t>4963838558</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:04:15</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44399.41961805556</v>
       </c>
       <c r="I445" t="n">
         <v>4</v>
@@ -33179,10 +32307,8 @@
           <t>4963838482</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:04:13</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44399.41959490741</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -33259,10 +32385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:04:11</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44399.41957175926</v>
       </c>
       <c r="I447" t="n">
         <v>1</v>
@@ -33338,10 +32462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:04:10</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44399.41956018518</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33413,10 +32535,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:03:53</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44399.41936342593</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33484,10 +32604,8 @@
           <t>4963840574</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:03:17</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44399.41894675926</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33555,10 +32673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:03:00</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44399.41875</v>
       </c>
       <c r="I451" t="n">
         <v>100</v>
@@ -33626,10 +32742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:03:00</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44399.41875</v>
       </c>
       <c r="I452" t="n">
         <v>33</v>
@@ -33705,10 +32819,8 @@
           <t>4963829973</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:02:57</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44399.41871527778</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33772,10 +32884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:02:55</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44399.41869212963</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33854,10 +32964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:02:55</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44399.41869212963</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33921,10 +33029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:02:51</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44399.41864583334</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33996,10 +33102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:02:51</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44399.41864583334</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -34071,10 +33175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:02:42</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44399.41854166667</v>
       </c>
       <c r="I458" t="n">
         <v>1</v>
@@ -34134,10 +33236,8 @@
           <t>4963835743</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:02:33</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44399.4184375</v>
       </c>
       <c r="I459" t="n">
         <v>5</v>
@@ -34210,10 +33310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:02:30</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44399.41840277778</v>
       </c>
       <c r="I460" t="n">
         <v>1</v>
@@ -34285,10 +33383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:02:28</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44399.41837962963</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -34368,10 +33464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:02:25</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44399.4183449074</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34443,10 +33537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:02:19</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44399.41827546297</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34522,10 +33614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:02:04</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44399.41810185185</v>
       </c>
       <c r="I464" t="n">
         <v>40</v>
@@ -34597,10 +33687,8 @@
           <t>4963828285</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:01:57</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44399.41802083333</v>
       </c>
       <c r="I465" t="n">
         <v>13</v>
@@ -34672,10 +33760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:01:53</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44399.41797453703</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34747,10 +33833,8 @@
           <t>4963828123</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:01:51</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44399.41795138889</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34818,10 +33902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:01:50</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44399.41793981481</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34889,10 +33971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:01:50</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44399.41793981481</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34966,10 +34046,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:01:48</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44399.41791666667</v>
       </c>
       <c r="I470" t="n">
         <v>61</v>
@@ -35037,10 +34115,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:01:48</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44399.41791666667</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -35108,10 +34184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:01:47</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44399.4179050926</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -35183,10 +34257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:01:41</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44399.41783564815</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -35254,10 +34326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:01:41</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44399.41783564815</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -35325,10 +34395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:01:36</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44399.41777777778</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35396,10 +34464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:01:30</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44399.41770833333</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35471,10 +34537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:01:29</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44399.41769675926</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35546,10 +34610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:01:27</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44399.41767361111</v>
       </c>
       <c r="I478" t="n">
         <v>36</v>
@@ -35614,10 +34676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:01:27</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44399.41767361111</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35681,10 +34741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:01:25</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44399.41765046296</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35752,10 +34810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:01:20</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44399.4175925926</v>
       </c>
       <c r="I481" t="n">
         <v>68</v>
@@ -35827,10 +34883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:01:20</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44399.4175925926</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35902,10 +34956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:01:16</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44399.4175462963</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35969,10 +35021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:01:13</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44399.41751157407</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -36048,10 +35098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:01:09</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44399.41746527778</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -36119,10 +35167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:01:08</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44399.4174537037</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -36190,10 +35236,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:01:04</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44399.41740740741</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -36261,10 +35305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:01:01</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44399.41737268519</v>
       </c>
       <c r="I488" t="n">
         <v>2</v>
@@ -36338,10 +35380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:00:59</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44399.41734953703</v>
       </c>
       <c r="I489" t="n">
         <v>1</v>
@@ -36405,10 +35445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:00:59</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44399.41734953703</v>
       </c>
       <c r="I490" t="n">
         <v>1</v>
@@ -36476,10 +35514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:00:59</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44399.41734953703</v>
       </c>
       <c r="I491" t="n">
         <v>5</v>
@@ -36547,10 +35583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:00:55</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44399.41730324074</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36618,10 +35652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:00:55</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44399.41730324074</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36698,10 +35730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:00:55</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44399.41730324074</v>
       </c>
       <c r="I494" t="n">
         <v>1239</v>
@@ -36769,10 +35799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:00:54</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44399.41729166666</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36836,10 +35864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:00:50</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44399.41724537037</v>
       </c>
       <c r="I496" t="n">
         <v>3</v>
@@ -36915,10 +35941,8 @@
           <t>4963826270</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:00:48</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44399.41722222222</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36986,10 +36010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:00:47</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44399.41721064815</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -37057,10 +36079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:00:46</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44399.41719907407</v>
       </c>
       <c r="I499" t="n">
         <v>3</v>
@@ -37137,10 +36157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:00:44</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44399.41717592593</v>
       </c>
       <c r="I500" t="n">
         <v>359</v>
@@ -37208,10 +36226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:00:43</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44399.41716435185</v>
       </c>
       <c r="I501" t="n">
         <v>160</v>
@@ -37283,10 +36299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:00:41</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44399.4171412037</v>
       </c>
       <c r="I502" t="n">
         <v>5</v>
@@ -37350,10 +36364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:00:40</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44399.41712962963</v>
       </c>
       <c r="I503" t="n">
         <v>4</v>
@@ -37430,10 +36442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:00:40</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44399.41712962963</v>
       </c>
       <c r="I504" t="n">
         <v>1</v>
@@ -37497,10 +36507,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:00:39</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44399.41711805556</v>
       </c>
       <c r="I505" t="n">
         <v>3</v>
@@ -37564,10 +36572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:00:38</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44399.41710648148</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37639,10 +36645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:00:38</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44399.41710648148</v>
       </c>
       <c r="I507" t="n">
         <v>10</v>
@@ -37710,10 +36714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:00:37</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44399.41709490741</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37789,10 +36791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:00:32</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44399.41703703703</v>
       </c>
       <c r="I509" t="n">
         <v>2</v>
@@ -37856,10 +36856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:00:31</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44399.41702546296</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37935,10 +36933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:00:31</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44399.41702546296</v>
       </c>
       <c r="I511" t="n">
         <v>3</v>
@@ -38006,10 +37002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:00:30</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44399.41701388889</v>
       </c>
       <c r="I512" t="n">
         <v>5</v>
@@ -38077,10 +37071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:00:29</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44399.41700231482</v>
       </c>
       <c r="I513" t="n">
         <v>1</v>
